--- a/Python勉強会_Excel操作編.xlsx
+++ b/Python勉強会_Excel操作編.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taro\Google ドライブ\00_taro\01_Python\00_PyLearning\20201127_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E0B4BE-11CD-47AC-B869-C642AE1FEC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6592C3B8-3464-40EA-9E45-CAEDB7CABCB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">スタイル等の設定!$A$1:$AC$82</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">はじめに!$A$1:$AC$106</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">応用編!$A$1:$AC$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">応用編!$A$1:$AC$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">基本的な使い方!$A$1:$AC$61</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">実用例!$A$1:$AC$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">線のスタイル!$A$1:$J$52</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="268">
   <si>
     <t>まずは、openpyxlをインストールします。</t>
   </si>
@@ -7942,6 +7942,281 @@
   <si>
     <t xml:space="preserve">      もじ      </t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクトリ内のファイル一覧を取得する</t>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> glob</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">all_files </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> glob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>glob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"./folder/*"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">py_files </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> glob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>glob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"./folder/*.py"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xlsx_files </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> glob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>glob</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"./folder/*.xlsx"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -11201,7 +11476,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9DBD7C-A4C7-426D-8FF6-5EF78775F3BE}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -11290,46 +11565,71 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="38" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="38" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="B20" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="B21" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="C24" s="46" t="s">
+    <row r="30" spans="1:3">
+      <c r="C30" s="46" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="C25" s="1" t="s">
+    <row r="31" spans="1:3">
+      <c r="C31" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="C26" s="47" t="s">
+    <row r="32" spans="1:3">
+      <c r="C32" s="47" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="B28" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="B30" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
         <v>261</v>
       </c>
     </row>

--- a/Python勉強会_Excel操作編.xlsx
+++ b/Python勉強会_Excel操作編.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taro\Google ドライブ\00_taro\01_Python\00_PyLearning\20201127_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6592C3B8-3464-40EA-9E45-CAEDB7CABCB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C9D9A5-F88B-4BDF-BB43-E0C9934D8284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">はじめに!$A$1:$AC$106</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">応用編!$A$1:$AC$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">基本的な使い方!$A$1:$AC$61</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">実用例!$A$1:$AC$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">実用例!$A$1:$AC$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">線のスタイル!$A$1:$J$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">塗りつぶしパターン!$A$1:$N$52</definedName>
   </definedNames>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="266">
   <si>
     <t>まずは、openpyxlをインストールします。</t>
   </si>
@@ -1362,7 +1362,127 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>save</t>
+      <t>close</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"A1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"JOBCROWN"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cell</t>
     </r>
     <r>
       <rPr>
@@ -1378,24 +1498,238 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006666"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>column</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006666"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF008800"/>
         <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"ファイル名"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
+      <t>"ジョブクラウン"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006666"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006666"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
     </r>
     <r>
       <rPr>
@@ -1411,18 +1745,122 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Python勉強会"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF880000"/>
         <rFont val="Yu Gothic"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t># 拡張子を忘れずに！</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>wb</t>
+      <t># row,columnは省略可</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">data1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"A1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">value1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data1</t>
     </r>
     <r>
       <rPr>
@@ -1444,647 +1882,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>close</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008800"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"A1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008800"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"JOBCROWN"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cell</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>row</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006666"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>column</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006666"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">value </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008800"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"ジョブクラウン"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cell</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006666"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006666"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">value </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008800"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Python勉強会"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF880000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t># row,columnは省略可</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">data1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008800"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"A1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">value1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> data1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>value</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">row_data </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">rows </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF880000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t># イテラブルオブジェクトになります</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">column_data </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">columns </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF880000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t># イテラブルオブジェクトになります</t>
     </r>
   </si>
   <si>
@@ -3230,16 +3028,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>下記のようなExcelのデータを取得したとき</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3270,595 +3058,6 @@
   <si>
     <t>H</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1行目のrowは下記のようになります。</t>
-    <rPh sb="1" eb="3">
-      <t>ギョウメ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>すべてをcell_dataというリストに格納すると下記のようになります。</t>
-    <rPh sb="20" eb="22">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ここで、例えば"G"のデータを取得したい場合は下記のようにします。</t>
-    <rPh sb="4" eb="5">
-      <t>タト</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">cell_data </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF880000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t># 空のリストを定義</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>for</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> row </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000088"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rows</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    cell_data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>append</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>row</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF880000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t># rowは行に含まれるすべて列のデータを含んだタプルです</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">row </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008800"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"A"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008800"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"B"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008800"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"C"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008800"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"D"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">cell_data </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008800"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"A"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008800"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"B"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008800"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"C"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008800"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"D"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>),(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008800"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"E"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008800"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"F"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008800"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"G"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008800"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"H"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)]</t>
-    </r>
   </si>
   <si>
     <r>
@@ -4003,7 +3202,29 @@
   </si>
   <si>
     <r>
-      <t>wb</t>
+      <t xml:space="preserve">data2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ws</t>
     </r>
     <r>
       <rPr>
@@ -4025,274 +3246,64 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">worksheets </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF880000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t># イテラブルオブジェクトになります</t>
+      <t>cell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006666"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006666"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
     </r>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>wb</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sheetnames </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF880000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t># イテラブルオブジェクトになります</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">data2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cell</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006666"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006666"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">data3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ws</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF008800"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"A1:E6"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666600"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF880000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t># イテラブルオブジェクトになります</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>import</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> csv </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF880000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t># csvファイルを扱うライブラリを読み込む</t>
-    </r>
   </si>
   <si>
     <r>
@@ -8053,6 +7064,28 @@
       </rPr>
       <t>)</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF880000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># folder内のすべてのファイル名のリスト</t>
+    </r>
   </si>
   <si>
     <r>
@@ -8135,6 +7168,28 @@
       </rPr>
       <t>)</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF880000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># folder内の拡張子が.pyのファイルのリスト</t>
+    </r>
   </si>
   <si>
     <r>
@@ -8217,6 +7272,840 @@
       </rPr>
       <t>)</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF880000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># folder内の拡張子が.xlsxのファイルのリスト</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> csv</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>wb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">worksheets </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF880000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># シート一覧のリスト</t>
+    </r>
+    <rPh sb="19" eb="21">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>wb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sheetnames </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF880000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># シート名一覧のリスト</t>
+    </r>
+    <rPh sb="19" eb="20">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">data3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"A1:E6"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF880000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># 指定した範囲のセルを行単位に格納したタプル</t>
+    </r>
+    <rPh sb="22" eb="24">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ギョウタンイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">row_data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">rows </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF880000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># シート上のデータが入力されているセルを行単位に格納したタプル</t>
+    </r>
+    <rPh sb="24" eb="25">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ギョウタンイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">column_data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">columns </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF880000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># シート上のデータが入力されているセルを列単位に格納したタプル</t>
+    </r>
+    <rPh sb="30" eb="31">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>レツタンイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>wb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ファイル名.xlsx"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF880000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># 拡張子を忘れずに！</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cell_data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">rows </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF880000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># rowは行に含まれるすべて列のデータを含んだタプルです</t>
+    </r>
+  </si>
+  <si>
+    <t>下記のようなExcelのデータを取得するとき</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cell_data = ws.rowsとすると下記のようになります。</t>
+    <rPh sb="23" eb="25">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cell_data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"A"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"B"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"C"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"D"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>),(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"E"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"F"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"G"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008800"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"H"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>))</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここで、Excelの1行目を取得したい場合は下記のようにします。</t>
+    <rPh sb="11" eb="13">
+      <t>ギョウメ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">row </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cell_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006666"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666600"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>例えば"G"のデータを取得したい場合は下記のようにします。</t>
+    <rPh sb="0" eb="1">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -9685,22 +9574,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="40" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="40" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="42" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9710,7 +9599,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="40" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10027,7 +9916,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="43" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -10074,7 +9963,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="4" t="s">
-        <v>112</v>
+        <v>253</v>
       </c>
       <c r="G11" s="44"/>
     </row>
@@ -10089,7 +9978,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="B14" s="4" t="s">
-        <v>113</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -10198,17 +10087,17 @@
     </row>
     <row r="37" spans="1:2">
       <c r="B37" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="B38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="B39" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -10223,12 +10112,12 @@
     </row>
     <row r="42" spans="1:2">
       <c r="B42" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="B43" s="4" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -10236,13 +10125,13 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="43" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:2">
       <c r="B46" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -10256,7 +10145,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="B49" s="4" t="s">
-        <v>115</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -10270,7 +10159,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="B52" s="4" t="s">
-        <v>41</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -10284,7 +10173,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="B55" s="4" t="s">
-        <v>42</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -10298,7 +10187,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="B58" s="4" t="s">
-        <v>34</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -10312,7 +10201,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="B61" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -10356,12 +10245,12 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -10369,27 +10258,27 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="48" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="1" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="C13" s="2" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -10397,159 +10286,159 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="1" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3">
       <c r="C16" s="4" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="3:23">
       <c r="C17" s="4" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="3:23">
       <c r="C18" s="4" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="3:23">
       <c r="C19" s="4" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="4" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="3:23">
       <c r="C21" s="4" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="3:23">
       <c r="C22" s="4" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="3:23">
       <c r="C23" s="4" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="3:23">
       <c r="C24" s="4" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="3:23">
       <c r="C25" s="49" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="3:23">
       <c r="C27" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="3:23">
       <c r="C28" s="4" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="3:23">
       <c r="C30" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="3:23" ht="21">
       <c r="D31" s="120" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E31" s="120"/>
       <c r="F31" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="I31" s="121" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="J31" s="121"/>
       <c r="K31" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="N31" s="122" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="O31" s="122"/>
       <c r="P31" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="U31" s="119" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="V31" s="119"/>
       <c r="W31" s="1" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="C33" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="21">
       <c r="D34" s="123" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E34" s="123"/>
       <c r="F34" s="1" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="J34" s="124" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="K34" s="124"/>
       <c r="L34" s="1" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="B36" s="1" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="C37" s="4" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="B39" s="1" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="24">
       <c r="B40" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="48" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="B43" s="1" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="C44" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -10557,13 +10446,13 @@
     </row>
     <row r="46" spans="1:12">
       <c r="B46" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:12">
       <c r="C47" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -10571,28 +10460,28 @@
     </row>
     <row r="49" spans="1:3">
       <c r="B49" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3">
       <c r="C50" s="4" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="48" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="B53" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="C54" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -10600,59 +10489,59 @@
     </row>
     <row r="56" spans="1:3">
       <c r="B56" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="1:3">
       <c r="C57" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="B59" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3">
       <c r="C60" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="C61" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="C62" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="C63" s="4" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="C64" s="4" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="C65" s="49" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="C67" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="C68" s="4" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="2:3">
@@ -10660,13 +10549,13 @@
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C70" s="3"/>
     </row>
     <row r="71" spans="2:3">
       <c r="C71" s="4" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -10722,43 +10611,43 @@
       <c r="A2"/>
       <c r="B2" s="50"/>
       <c r="C2" s="51" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D2" s="58"/>
       <c r="E2" s="51" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F2" s="70"/>
       <c r="G2" s="51" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="H2" s="71"/>
       <c r="I2" s="51" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="J2" s="84"/>
       <c r="K2" s="51" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="L2" s="85"/>
       <c r="M2" s="51" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="N2" s="98"/>
       <c r="O2" s="51" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="P2" s="64"/>
       <c r="Q2" s="51" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="R2" s="111"/>
       <c r="S2" s="51" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="T2" s="112"/>
       <c r="U2" s="51" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="11.25" customHeight="1">
@@ -10777,43 +10666,43 @@
       <c r="A4"/>
       <c r="B4" s="52"/>
       <c r="C4" s="51" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D4" s="56"/>
       <c r="E4" s="51" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="F4" s="69"/>
       <c r="G4" s="51" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="H4" s="72"/>
       <c r="I4" s="51" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="J4" s="83"/>
       <c r="K4" s="51" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="L4" s="86"/>
       <c r="M4" s="51" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="N4" s="97"/>
       <c r="O4" s="51" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="P4" s="99"/>
       <c r="Q4" s="51" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="R4" s="110"/>
       <c r="S4" s="51" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="T4" s="113"/>
       <c r="U4" s="51" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="11.25" customHeight="1">
@@ -10832,43 +10721,43 @@
       <c r="A6"/>
       <c r="B6" s="53"/>
       <c r="C6" s="51" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D6" s="59"/>
       <c r="E6" s="51" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="F6" s="68"/>
       <c r="G6" s="51" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="H6" s="73"/>
       <c r="I6" s="51" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="J6" s="82"/>
       <c r="K6" s="51" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="L6" s="87"/>
       <c r="M6" s="51" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="N6" s="96"/>
       <c r="O6" s="51" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="P6" s="100"/>
       <c r="Q6" s="51" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="R6" s="109"/>
       <c r="S6" s="51" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="T6" s="114"/>
       <c r="U6" s="51" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="11.25" customHeight="1">
@@ -10887,43 +10776,43 @@
       <c r="A8"/>
       <c r="B8" s="54"/>
       <c r="C8" s="51" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D8" s="60"/>
       <c r="E8" s="51" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="F8" s="67"/>
       <c r="G8" s="51" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="H8" s="74"/>
       <c r="I8" s="51" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="J8" s="81"/>
       <c r="K8" s="51" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="L8" s="88"/>
       <c r="M8" s="51" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="N8" s="95"/>
       <c r="O8" s="51" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="P8" s="101"/>
       <c r="Q8" s="51" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="R8" s="108"/>
       <c r="S8" s="51" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="T8" s="115"/>
       <c r="U8" s="51" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="11.25" customHeight="1">
@@ -10942,43 +10831,43 @@
       <c r="A10"/>
       <c r="B10" s="55"/>
       <c r="C10" s="51" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="D10" s="61"/>
       <c r="E10" s="51" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F10" s="66"/>
       <c r="G10" s="51" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="H10" s="75"/>
       <c r="I10" s="51" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="J10" s="80"/>
       <c r="K10" s="51" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="L10" s="89"/>
       <c r="M10" s="51" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="N10" s="94"/>
       <c r="O10" s="51" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="P10" s="102"/>
       <c r="Q10" s="51" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="R10" s="107"/>
       <c r="S10" s="51" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="T10" s="116"/>
       <c r="U10" s="51" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="11.25" customHeight="1">
@@ -11001,39 +10890,39 @@
       </c>
       <c r="D12" s="62"/>
       <c r="E12" s="51" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="F12" s="65"/>
       <c r="G12" s="51" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="H12" s="76"/>
       <c r="I12" s="51" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J12" s="79"/>
       <c r="K12" s="51" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="L12" s="90"/>
       <c r="M12" s="51" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="N12" s="93"/>
       <c r="O12" s="51" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="P12" s="103"/>
       <c r="Q12" s="51" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="R12" s="106"/>
       <c r="S12" s="51" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="T12" s="117"/>
       <c r="U12" s="51" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="11.25" customHeight="1">
@@ -11052,58 +10941,58 @@
       <c r="A14"/>
       <c r="B14" s="57"/>
       <c r="C14" s="51" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D14" s="63"/>
       <c r="E14" s="51" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="F14" s="64"/>
       <c r="G14" s="51" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="H14" s="77"/>
       <c r="I14" s="51" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="J14" s="78"/>
       <c r="K14" s="51" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="L14" s="91"/>
       <c r="M14" s="51" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="N14" s="92"/>
       <c r="O14" s="51" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="P14" s="104"/>
       <c r="Q14" s="51" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="R14" s="105"/>
       <c r="S14" s="51" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="T14" s="118"/>
       <c r="U14" s="51" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="B16" s="7" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="7" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="7" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -11141,93 +11030,93 @@
     <row r="2" spans="2:12">
       <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:12">
       <c r="B4" s="11"/>
       <c r="C4" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:12">
       <c r="B6" s="15"/>
       <c r="C6" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K6" s="18"/>
       <c r="L6" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="19"/>
       <c r="C8" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="22"/>
       <c r="C10" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="2:12">
       <c r="B14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -11262,66 +11151,66 @@
     <row r="2" spans="2:9" ht="20.25" thickTop="1" thickBot="1">
       <c r="B2" s="25"/>
       <c r="C2" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E2" s="26"/>
       <c r="F2" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="20.25" thickTop="1" thickBot="1"/>
     <row r="4" spans="2:9" ht="20.25" thickTop="1" thickBot="1">
       <c r="B4" s="28"/>
       <c r="C4" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="19.5" thickBot="1"/>
     <row r="6" spans="2:9" ht="19.5" thickBot="1">
       <c r="B6" s="31"/>
       <c r="C6" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="19.5" thickBot="1"/>
     <row r="8" spans="2:9" ht="19.5" thickBot="1">
       <c r="B8" s="34"/>
       <c r="C8" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="36"/>
       <c r="C10" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -11334,7 +11223,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D0EFF6-FF1A-44CB-A2F0-423D36FA7ACF}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -11342,128 +11231,114 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="38" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="4" t="s">
-        <v>104</v>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" t="s">
+      <c r="C13" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="39" t="s">
         <v>89</v>
       </c>
+      <c r="F13" s="39" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="C15" s="39" t="s">
+      <c r="C14" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D14" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E14" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F14" s="39" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="C16" s="39" t="s">
+      <c r="B16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="C17" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="C20" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="C23" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="C19" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="C22" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="C25" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -11484,49 +11359,49 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="38" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="38"/>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="38"/>
       <c r="B4" s="4" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="4" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" s="45" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" s="45" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -11534,19 +11409,19 @@
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3">
       <c r="C14" s="4" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -11554,83 +11429,83 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" s="4" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="38" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="2" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="4" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="4" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="4" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="38" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="C30" s="46" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="C31" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="C32" s="47" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
